--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABE/20/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABE/20/seed5/result_data_RandomForest.xlsx
@@ -474,7 +474,7 @@
         <v>-7.6</v>
       </c>
       <c r="E2" t="n">
-        <v>16.4665</v>
+        <v>16.4133</v>
       </c>
     </row>
     <row r="3">
@@ -482,7 +482,7 @@
         <v>-21.82</v>
       </c>
       <c r="B3" t="n">
-        <v>6.438500000000006</v>
+        <v>6.499200000000005</v>
       </c>
       <c r="C3" t="n">
         <v>-12.16</v>
@@ -491,7 +491,7 @@
         <v>-8.949999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>16.5465</v>
+        <v>16.6961</v>
       </c>
     </row>
     <row r="4">
@@ -499,7 +499,7 @@
         <v>-19.84</v>
       </c>
       <c r="B4" t="n">
-        <v>8.581499999999998</v>
+        <v>8.631899999999996</v>
       </c>
       <c r="C4" t="n">
         <v>-13.95</v>
@@ -593,7 +593,7 @@
         <v>-7.01</v>
       </c>
       <c r="E9" t="n">
-        <v>17.42860000000001</v>
+        <v>17.52490000000002</v>
       </c>
     </row>
     <row r="10">
@@ -615,7 +615,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-21.674</v>
+        <v>-21.6677</v>
       </c>
       <c r="B11" t="n">
         <v>3.8</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.5645</v>
+        <v>-21.56770000000001</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -669,7 +669,7 @@
         <v>-22.38</v>
       </c>
       <c r="B14" t="n">
-        <v>7.107799999999995</v>
+        <v>6.725399999999994</v>
       </c>
       <c r="C14" t="n">
         <v>-11.3</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-21.71409999999999</v>
+        <v>-21.62209999999999</v>
       </c>
       <c r="B15" t="n">
         <v>5.32</v>
@@ -695,7 +695,7 @@
         <v>-10.04</v>
       </c>
       <c r="E15" t="n">
-        <v>16.07130000000001</v>
+        <v>15.89490000000001</v>
       </c>
     </row>
     <row r="16">
@@ -763,7 +763,7 @@
         <v>-7.9</v>
       </c>
       <c r="E19" t="n">
-        <v>16.2431</v>
+        <v>16.29489999999999</v>
       </c>
     </row>
     <row r="20">
@@ -780,7 +780,7 @@
         <v>-10.64</v>
       </c>
       <c r="E20" t="n">
-        <v>15.7823</v>
+        <v>15.8059</v>
       </c>
     </row>
     <row r="21">
@@ -865,7 +865,7 @@
         <v>-7.4</v>
       </c>
       <c r="E25" t="n">
-        <v>16.99210000000001</v>
+        <v>17.18570000000001</v>
       </c>
     </row>
     <row r="26">
@@ -873,7 +873,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>4.8371</v>
+        <v>4.722800000000002</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -887,7 +887,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.86029999999999</v>
+        <v>-21.94969999999999</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
@@ -899,12 +899,12 @@
         <v>-8.550000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>16.6684</v>
+        <v>16.77289999999999</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-21.7603</v>
+        <v>-21.90199999999999</v>
       </c>
       <c r="B28" t="n">
         <v>5.47</v>
@@ -916,7 +916,7 @@
         <v>-7.75</v>
       </c>
       <c r="E28" t="n">
-        <v>16.4484</v>
+        <v>16.5716</v>
       </c>
     </row>
     <row r="29">
@@ -950,15 +950,15 @@
         <v>-10.18</v>
       </c>
       <c r="E30" t="n">
-        <v>15.61520000000002</v>
+        <v>15.64080000000001</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-21.52689999999999</v>
+        <v>-21.59909999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>5.057100000000002</v>
+        <v>4.9588</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.31049999999999</v>
+        <v>-21.36259999999999</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -984,7 +984,7 @@
         <v>-8.69</v>
       </c>
       <c r="E32" t="n">
-        <v>16.48429999999999</v>
+        <v>16.59349999999999</v>
       </c>
     </row>
     <row r="33">
@@ -1026,7 +1026,7 @@
         <v>-19.24</v>
       </c>
       <c r="B35" t="n">
-        <v>9.205800000000005</v>
+        <v>9.115700000000007</v>
       </c>
       <c r="C35" t="n">
         <v>-13.02</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-19.6565</v>
+        <v>-19.16230000000001</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -1060,7 +1060,7 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>8.813800000000001</v>
+        <v>8.739400000000003</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-19.39710000000001</v>
+        <v>-18.99620000000001</v>
       </c>
       <c r="B38" t="n">
         <v>9.66</v>
@@ -1094,7 +1094,7 @@
         <v>-18.76</v>
       </c>
       <c r="B39" t="n">
-        <v>9.376800000000001</v>
+        <v>9.369600000000004</v>
       </c>
       <c r="C39" t="n">
         <v>-10.58</v>
@@ -1111,7 +1111,7 @@
         <v>-19.21</v>
       </c>
       <c r="B40" t="n">
-        <v>8.665900000000001</v>
+        <v>8.851200000000004</v>
       </c>
       <c r="C40" t="n">
         <v>-12.94</v>
@@ -1188,7 +1188,7 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>16.7821</v>
+        <v>16.91019999999999</v>
       </c>
     </row>
     <row r="45">
@@ -1196,7 +1196,7 @@
         <v>-22.15</v>
       </c>
       <c r="B45" t="n">
-        <v>6.905599999999998</v>
+        <v>6.819000000000004</v>
       </c>
       <c r="C45" t="n">
         <v>-11</v>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.64510000000001</v>
+        <v>-21.72019999999999</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1239,7 +1239,7 @@
         <v>-8.5</v>
       </c>
       <c r="E47" t="n">
-        <v>16.6965</v>
+        <v>16.7178</v>
       </c>
     </row>
     <row r="48">
@@ -1315,7 +1315,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.244999999999999</v>
+        <v>4.981100000000003</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1346,7 +1346,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-21.76159999999999</v>
+        <v>-21.78269999999998</v>
       </c>
       <c r="B54" t="n">
         <v>6.01</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.3273</v>
+        <v>-22.2716</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1380,7 +1380,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-22.0099</v>
+        <v>-21.97249999999999</v>
       </c>
       <c r="B56" t="n">
         <v>4.42</v>
@@ -1400,7 +1400,7 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>4.774799999999995</v>
+        <v>4.642799999999992</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1426,7 +1426,7 @@
         <v>-7.51</v>
       </c>
       <c r="E58" t="n">
-        <v>16.24530000000003</v>
+        <v>16.29510000000001</v>
       </c>
     </row>
     <row r="59">
@@ -1494,7 +1494,7 @@
         <v>-8.5</v>
       </c>
       <c r="E62" t="n">
-        <v>16.6517</v>
+        <v>16.71299999999999</v>
       </c>
     </row>
     <row r="63">
@@ -1567,7 +1567,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-21.45179999999998</v>
+        <v>-21.50189999999998</v>
       </c>
       <c r="B67" t="n">
         <v>5.53</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.62689999999998</v>
+        <v>-21.67439999999997</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-22.09700000000002</v>
+        <v>-22.12540000000003</v>
       </c>
       <c r="B72" t="n">
         <v>6.81</v>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-19.32379999999999</v>
+        <v>-19.22420000000001</v>
       </c>
       <c r="B73" t="n">
         <v>10.24</v>
@@ -1749,7 +1749,7 @@
         <v>-6.2</v>
       </c>
       <c r="E77" t="n">
-        <v>17.17220000000002</v>
+        <v>17.21730000000003</v>
       </c>
     </row>
     <row r="78">
@@ -1766,7 +1766,7 @@
         <v>-6.53</v>
       </c>
       <c r="E78" t="n">
-        <v>16.59480000000002</v>
+        <v>16.62690000000003</v>
       </c>
     </row>
     <row r="79">
@@ -1808,7 +1808,7 @@
         <v>-22.03</v>
       </c>
       <c r="B81" t="n">
-        <v>6.5027</v>
+        <v>6.535600000000001</v>
       </c>
       <c r="C81" t="n">
         <v>-11.36</v>
@@ -1839,10 +1839,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.69269999999999</v>
+        <v>-21.75389999999998</v>
       </c>
       <c r="B83" t="n">
-        <v>5.4047</v>
+        <v>5.977300000000001</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1868,7 +1868,7 @@
         <v>-8.34</v>
       </c>
       <c r="E84" t="n">
-        <v>16.7107</v>
+        <v>16.7649</v>
       </c>
     </row>
     <row r="85">
@@ -1890,7 +1890,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-21.96240000000001</v>
+        <v>-22.034</v>
       </c>
       <c r="B86" t="n">
         <v>4.69</v>
@@ -1953,7 +1953,7 @@
         <v>-7</v>
       </c>
       <c r="E89" t="n">
-        <v>17.39900000000002</v>
+        <v>17.25080000000001</v>
       </c>
     </row>
     <row r="90">
@@ -1975,7 +1975,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-21.54460000000001</v>
+        <v>-21.52540000000001</v>
       </c>
       <c r="B91" t="n">
         <v>4.28</v>
@@ -1987,7 +1987,7 @@
         <v>-5.79</v>
       </c>
       <c r="E91" t="n">
-        <v>17.70650000000002</v>
+        <v>17.78090000000002</v>
       </c>
     </row>
     <row r="92">
@@ -2004,12 +2004,12 @@
         <v>-5.32</v>
       </c>
       <c r="E92" t="n">
-        <v>17.90200000000001</v>
+        <v>17.84520000000002</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.3061</v>
+        <v>-21.3173</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2072,7 +2072,7 @@
         <v>-8.529999999999999</v>
       </c>
       <c r="E96" t="n">
-        <v>16.6559</v>
+        <v>16.74649999999999</v>
       </c>
     </row>
     <row r="97">
@@ -2111,7 +2111,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-20.0074</v>
+        <v>-20.00989999999999</v>
       </c>
       <c r="B99" t="n">
         <v>8.42</v>
@@ -2131,7 +2131,7 @@
         <v>-21.66</v>
       </c>
       <c r="B100" t="n">
-        <v>5.268999999999998</v>
+        <v>4.956999999999997</v>
       </c>
       <c r="C100" t="n">
         <v>-14.32</v>
@@ -2165,7 +2165,7 @@
         <v>-20.36</v>
       </c>
       <c r="B102" t="n">
-        <v>8.351000000000006</v>
+        <v>8.474200000000005</v>
       </c>
       <c r="C102" t="n">
         <v>-12</v>
@@ -2174,7 +2174,7 @@
         <v>-8.630000000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>16.87429999999999</v>
+        <v>16.90939999999998</v>
       </c>
     </row>
   </sheetData>
